--- a/target_observability/EarlyScienceObservability_standard_constraints.xlsx
+++ b/target_observability/EarlyScienceObservability_standard_constraints.xlsx
@@ -678,7 +678,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -690,7 +691,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -702,14 +704,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -719,7 +723,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -730,7 +735,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -741,7 +747,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -916,7 +923,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -928,7 +936,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -940,14 +949,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -957,7 +968,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -968,7 +980,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -980,7 +993,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1168,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -1166,7 +1181,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -1178,14 +1194,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -1195,7 +1213,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -1206,7 +1225,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -1218,7 +1238,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1400,8 @@
 Baades
 G316.75
 M8
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -1389,7 +1411,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -1401,7 +1424,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -1411,14 +1435,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -1428,7 +1454,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -1439,7 +1466,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -1451,7 +1479,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -1559,29 +1588,37 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -1591,7 +1628,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -1602,7 +1640,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -1614,7 +1653,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -1720,15 +1760,32 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
-      <c r="I2" s="1" t="inlineStr"/>
-      <c r="J2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -1738,7 +1795,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -1749,7 +1807,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -1856,11 +1915,31 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
-      <c r="I2" s="1" t="inlineStr"/>
-      <c r="J2" s="1" t="inlineStr"/>
-      <c r="K2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
@@ -1869,7 +1948,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -1880,7 +1960,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -1987,15 +2068,36 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
-      <c r="I2" s="1" t="inlineStr"/>
-      <c r="J2" s="1" t="inlineStr"/>
-      <c r="K2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -2006,7 +2108,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -2113,25 +2216,44 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
-      <c r="I2" s="1" t="inlineStr"/>
-      <c r="J2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>N44</t>
+          <t>N44
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -2238,25 +2360,44 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
-      <c r="I2" s="1" t="inlineStr"/>
-      <c r="J2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>N44</t>
+          <t>N44
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -2444,7 +2585,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2456,7 +2598,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -2468,21 +2611,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -2492,7 +2638,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -2503,7 +2650,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -2602,41 +2750,24 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>NGC3199
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NGC6388</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>NGC6388</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>NGC6388</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>NGC6388</t>
-        </is>
-      </c>
+          <t>NGC3199</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="inlineStr"/>
+      <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
           <t>W28
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
           <t>W28
 M20
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2644,25 +2775,32 @@
           <t>W28
 M20
 M8
-NGC6388</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr"/>
+DEM103</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>N44</t>
+          <t>N44
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -2777,32 +2915,28 @@
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -2810,7 +2944,7 @@
           <t>W28
 M20
 M8
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -2818,7 +2952,7 @@
           <t>W28
 M20
 M8
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2826,25 +2960,32 @@
           <t>W28
 M20
 M8
-NGC6388</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr"/>
+DEM103</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>N44</t>
+          <t>N44
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -2972,24 +3113,21 @@
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -2997,7 +3135,7 @@
           <t>W28
 M20
 M8
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -3005,7 +3143,7 @@
           <t>W28
 M20
 M8
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -3013,26 +3151,33 @@
           <t>W28
 M20
 M8
-NGC6388</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr"/>
+DEM103</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -3173,16 +3318,14 @@
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -3190,7 +3333,7 @@
           <t>W28
 M20
 M8
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -3198,7 +3341,7 @@
           <t>W28
 M20
 M8
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -3206,26 +3349,33 @@
           <t>W28
 M20
 M8
-NGC6388</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr"/>
+DEM103</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -3379,8 +3529,7 @@
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -3388,7 +3537,7 @@
           <t>W28
 M20
 M8
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -3396,7 +3545,7 @@
           <t>W28
 M20
 M8
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -3404,26 +3553,33 @@
           <t>W28
 M20
 M8
-NGC6388</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr"/>
+DEM103</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -3592,7 +3748,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -3602,7 +3759,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -3612,12 +3770,14 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -3625,7 +3785,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -3633,7 +3794,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -3642,7 +3804,8 @@
 S308
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -3801,7 +3964,8 @@
 Baades
 G316.75
 M8
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -3813,7 +3977,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -3823,7 +3988,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -3831,12 +3997,14 @@
           <t>Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -3844,7 +4012,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -3852,7 +4021,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -3861,7 +4031,8 @@
 S308
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -4020,7 +4191,8 @@
 G316.75
 M8
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -4032,7 +4204,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -4044,18 +4217,21 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Baades
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -4063,7 +4239,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -4071,7 +4248,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -4080,7 +4258,8 @@
 S308
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -4240,7 +4419,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -4252,7 +4432,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -4264,7 +4445,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -4272,12 +4454,14 @@
           <t>NGC6822
 Baades
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -4285,7 +4469,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -4293,7 +4478,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -4302,7 +4488,8 @@
 S308
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -4462,7 +4649,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -4474,7 +4662,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -4486,21 +4675,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -4510,7 +4702,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -4521,7 +4714,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -4533,7 +4727,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -4721,7 +4916,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -4733,7 +4929,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -4745,21 +4942,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -4770,7 +4970,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -4781,7 +4982,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -4940,7 +5142,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -4952,7 +5155,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -4964,21 +5168,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -4989,7 +5196,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -5000,7 +5208,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -5012,7 +5221,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -5172,7 +5382,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -5184,7 +5395,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -5196,21 +5408,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -5221,7 +5436,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -5232,7 +5448,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -5244,7 +5461,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -5404,7 +5622,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -5416,7 +5635,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -5428,21 +5648,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>N44
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -5453,7 +5676,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -5464,7 +5688,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -5476,7 +5701,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -5634,7 +5860,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -5646,7 +5873,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -5658,14 +5886,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -5673,7 +5903,8 @@
           <t>N44
 AV435
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -5684,7 +5915,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -5695,7 +5927,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -5707,7 +5940,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -5865,7 +6099,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -5877,7 +6112,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -5889,14 +6125,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -5905,7 +6143,8 @@
 AV435
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -5916,7 +6155,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -5927,7 +6167,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -5939,7 +6180,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -6097,7 +6339,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -6109,7 +6352,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -6121,14 +6365,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -6138,7 +6384,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -6149,7 +6396,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -6160,7 +6408,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -6172,7 +6421,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -6325,7 +6575,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -6337,7 +6588,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -6349,14 +6601,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -6366,7 +6620,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -6377,7 +6632,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -6388,7 +6644,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -6400,7 +6657,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -6552,7 +6810,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -6564,7 +6823,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -6576,14 +6836,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -6593,7 +6855,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -6604,7 +6867,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -6616,7 +6880,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -6628,7 +6893,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -6780,7 +7046,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -6792,7 +7059,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -6804,14 +7072,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -6821,7 +7091,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -6832,7 +7103,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -6844,7 +7116,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -6856,7 +7129,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7279,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -7017,7 +7292,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -7028,14 +7304,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7045,7 +7323,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -7056,7 +7335,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -7068,7 +7348,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -7080,7 +7361,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -7267,7 +7549,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -7279,7 +7562,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7291,21 +7575,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -7316,7 +7603,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -7327,7 +7615,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -7460,7 +7749,8 @@
 Baades
 G316.75
 M8
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -7472,7 +7762,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -7484,7 +7775,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -7493,14 +7785,16 @@
 Baades
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7510,7 +7804,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -7521,7 +7816,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -7533,7 +7829,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -7545,7 +7842,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -7674,7 +7972,8 @@
 RCW86
 Baades
 M8
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -7683,7 +7982,8 @@
 M20
 Baades
 M8
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -7694,7 +7994,8 @@
 Baades
 M8
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -7702,14 +8003,16 @@
           <t>NGC6822
 Baades
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7719,7 +8022,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -7730,7 +8034,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -7742,7 +8047,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -7754,7 +8060,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -7851,31 +8158,36 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7885,7 +8197,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -7896,7 +8209,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -7908,7 +8222,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -7920,7 +8235,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8017,28 +8333,33 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -8049,7 +8370,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -8060,7 +8382,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -8072,7 +8395,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -8084,7 +8408,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8179,11 +8504,31 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr"/>
       <c r="D2" s="1" t="inlineStr"/>
-      <c r="E2" s="1" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
-      <c r="I2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>N44
@@ -8192,7 +8537,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -8203,7 +8549,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -8215,7 +8562,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -8227,7 +8575,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8322,19 +8671,37 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr"/>
       <c r="D2" s="1" t="inlineStr"/>
-      <c r="E2" s="1" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>N44</t>
+          <t>N44
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -8345,7 +8712,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -8357,7 +8725,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -8371,7 +8740,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8466,25 +8836,44 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr"/>
       <c r="D2" s="1" t="inlineStr"/>
-      <c r="E2" s="1" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>N44</t>
+          <t>N44
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -8496,7 +8885,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -8510,7 +8900,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8605,31 +8996,51 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr"/>
       <c r="D2" s="1" t="inlineStr"/>
-      <c r="E2" s="1" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>N44</t>
+          <t>N44
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -8643,7 +9054,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8739,24 +9151,21 @@
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
           <t>W28
 M20
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -8764,7 +9173,7 @@
           <t>W28
 M20
 M8
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -8772,7 +9181,7 @@
           <t>W28
 M20
 M8
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -8780,37 +9189,46 @@
           <t>W28
 M20
 M8
-NGC6388</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr"/>
+DEM103</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>DEM103</t>
+        </is>
+      </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>N44</t>
+          <t>N44
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
           <t>N44
-30Dor</t>
+30Dor
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8997,7 +9415,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -9009,7 +9428,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -9021,14 +9441,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -9036,7 +9458,8 @@
           <t>N44
 NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -9047,7 +9470,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -9058,7 +9482,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9668,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -9255,7 +9681,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -9267,21 +9694,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -9292,7 +9722,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -9303,7 +9734,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9918,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -9498,7 +9931,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -9510,14 +9944,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -9526,7 +9962,8 @@
 AV435
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -9537,7 +9974,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -9548,7 +9986,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -9731,7 +10170,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -9743,7 +10183,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -9755,14 +10196,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -9772,7 +10215,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -9783,7 +10227,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -9794,7 +10239,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -9977,7 +10423,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -9989,7 +10436,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -10001,14 +10449,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -10018,7 +10468,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -10029,7 +10480,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -10040,7 +10492,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
